--- a/biology/Botanique/Genêt_d'Angleterre/Genêt_d'Angleterre.xlsx
+++ b/biology/Botanique/Genêt_d'Angleterre/Genêt_d'Angleterre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_d%27Angleterre</t>
+          <t>Genêt_d'Angleterre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genista anglica
 Le genêt d'Angleterre, (Genista anglica), aussi appelé le petit genêt épineux ou la genisette  est une espèce de plante de la famille des Fabaceae.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_d%27Angleterre</t>
+          <t>Genêt_d'Angleterre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il forme très rarement des touffes denses, et est le plus souvent dispersé en petites touffes ténues, parfois presque rampantes.
 Fleurs : de 6 à 8 mm avec carène plus longue que l'étendard.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_d%27Angleterre</t>
+          <t>Genêt_d'Angleterre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est une gousse glabre mesurant de 1 à 1,5 cm de long renfermant une rangée de petites graines.
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_d%27Angleterre</t>
+          <t>Genêt_d'Angleterre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans la lande acide et oligotrophe ; humide ou sèche et souvent en bordure d'eau, voire dans l'eau une partie de l'année, accompagné par exemple d'Erica tetralix. Il forme des bouquets parfois denses lorsqu'exposé au soleil. En l'absence de scrappage ou d'entretien extensif de l'ouverture du milieu par de grands herbivores, il s'étiole puis meurt lorsque les buissons d'ajoncs ou de prunelliers colonisent la lande, qui disparaît à son tour pour laisser place à la forêt de bouleaux et de chênes.
 </t>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_d%27Angleterre</t>
+          <t>Genêt_d'Angleterre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Genêt d'Angleterre se limite strictement à l'Europe occidentale et se rencontre dans diverses landes non seulement des îles britanniques (Devon, Pays de Galle, Ecosse) mais aussi du Danemark, du nord de l'Allemagne et des Pays-Bas. En France, il est surtout présent dans les landes siliceuses du Massif Central et de façon plus disséminée dans le sud-ouest (Landes) et le nord-ouest.
 </t>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_d%27Angleterre</t>
+          <t>Genêt_d'Angleterre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genêt d'Angleterre s'est souvent raréfié ou a disparu avec son habitat. L'eutrophisation des landes et leur fermeture par le boisement spontané ou anthropique sont ses premières causes de régression.
 </t>
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_d%27Angleterre</t>
+          <t>Genêt_d'Angleterre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,11 +698,48 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante qui a été utilisée comme tinctoriale.
-Vertus officinales
-La tige fleurie contient des substances diurétiques, purgatives et sudorifiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Genêt_d'Angleterre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gen%C3%AAt_d%27Angleterre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vertus officinales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tige fleurie contient des substances diurétiques, purgatives et sudorifiques.
 </t>
         </is>
       </c>
